--- a/NEW HR/TORRES, ALLAN.xlsx
+++ b/NEW HR/TORRES, ALLAN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\DONE 2-2-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -583,15 +583,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -604,11 +595,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1305,7 +1305,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1348,7 +1348,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1412,7 +1412,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1472,7 +1472,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1538,7 +1538,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1601,7 +1601,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1699,7 +1699,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1758,7 +1758,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1823,7 +1823,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1866,7 +1866,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1941,7 +1941,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2127,7 +2127,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2193,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2251,7 +2251,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2317,7 +2317,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2373,7 +2373,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2448,7 +2448,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2491,7 +2491,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2557,7 +2557,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2613,7 +2613,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2711,7 +2711,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2774,7 +2774,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3251,9 +3251,9 @@
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A63" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76:C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3283,14 +3283,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3301,14 +3301,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3321,14 +3321,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3354,18 +3354,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3412,7 +3412,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>51.25</v>
+        <v>58.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3422,7 +3422,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>76.25</v>
+        <v>83.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4761,7 +4761,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13">
@@ -4780,15 +4780,19 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
+      <c r="A77" s="40">
+        <v>44985</v>
+      </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
@@ -4796,15 +4800,19 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
+      <c r="A78" s="40">
+        <v>45016</v>
+      </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
@@ -4812,15 +4820,19 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>45046</v>
+      </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
@@ -4828,15 +4840,19 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>45077</v>
+      </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
@@ -4844,15 +4860,19 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>45107</v>
+      </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
@@ -4860,15 +4880,19 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>45138</v>
+      </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -4876,7 +4900,9 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>45169</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -4892,7 +4918,9 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>45199</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -4908,7 +4936,9 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>45230</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -4924,7 +4954,9 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>45260</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -4940,7 +4972,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45291</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -4956,7 +4990,9 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>45322</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -4972,7 +5008,9 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45351</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -4988,7 +5026,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>45382</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -5004,7 +5044,9 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>45412</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -5020,7 +5062,9 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>45443</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -5036,7 +5080,9 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>45473</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -5052,7 +5098,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>45504</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -5068,7 +5116,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>45535</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -5084,7 +5134,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>45565</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -5100,7 +5152,9 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>45596</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -5116,7 +5170,9 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>45626</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -5132,7 +5188,9 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>45657</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -5148,7 +5206,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>45688</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -5164,7 +5224,9 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>45716</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -5180,7 +5242,9 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>45747</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -5709,17 +5773,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5755,8 +5819,8 @@
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A3" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <pane ySplit="4050" topLeftCell="A3"/>
+      <selection activeCell="I9" sqref="I9"/>
       <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -5788,14 +5852,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5809,17 +5873,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56" t="str">
+      <c r="F3" s="53" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5833,17 +5897,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50" t="str">
+      <c r="F4" s="54" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="50"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5869,18 +5933,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
